--- a/COMPONENTS/Battery/BatteryDatabase.xlsx
+++ b/COMPONENTS/Battery/BatteryDatabase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prenk\Box\ARG_Research\QuadrotorOptimization\COMPONENTS\Battery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renkert2\Documents\ARG_Research\QuadrotorOptimization\COMPONENTS\Battery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5A4280-829B-4F20-9D7A-9600162DC0B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701FF17C-75EE-44CF-A1AD-DB0DE625A630}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EAB02434-AA89-48FD-AFF1-30E2F2364EC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EAB02434-AA89-48FD-AFF1-30E2F2364EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="94">
   <si>
     <t>Make</t>
   </si>
@@ -54,9 +53,6 @@
     <t>Battery</t>
   </si>
   <si>
-    <t>Component:</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -78,15 +74,6 @@
     <t>Mass</t>
   </si>
   <si>
-    <t>Parameter:</t>
-  </si>
-  <si>
-    <t>Unit:</t>
-  </si>
-  <si>
-    <t>Description:</t>
-  </si>
-  <si>
     <t>unit</t>
   </si>
   <si>
@@ -316,14 +303,34 @@
   </si>
   <si>
     <t>Turnigy Graphene Panther 6000mAh 3S 75C Battery Pack w/XT90</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -351,11 +358,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -670,36 +678,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974502DF-30A3-446B-868F-1B65DF404E6A}">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="4" max="4" width="58.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>6</v>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>14</v>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -711,183 +719,156 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="I3" t="s">
+      <c r="G4" t="s">
         <v>20</v>
       </c>
-      <c r="J3" t="s">
+      <c r="H4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
+      <c r="J4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>4</v>
-      </c>
-      <c r="G6">
-        <v>3000</v>
-      </c>
-      <c r="H6">
-        <v>3.7499999999999999E-3</v>
-      </c>
-      <c r="I6">
-        <v>75</v>
-      </c>
-      <c r="J6">
-        <v>0.40500000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
       </c>
       <c r="G7">
         <v>3000</v>
       </c>
       <c r="H7">
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="I7">
+        <v>75</v>
+      </c>
+      <c r="J7">
+        <v>0.40500000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>3000</v>
+      </c>
+      <c r="H8">
         <v>4.3333333333333331E-3</v>
       </c>
-      <c r="I7">
-        <v>75</v>
-      </c>
-      <c r="J7">
+      <c r="I8">
+        <v>75</v>
+      </c>
+      <c r="J8">
         <v>0.32</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8">
-        <v>500</v>
-      </c>
-      <c r="H8">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="I8">
-        <v>75</v>
-      </c>
-      <c r="J8">
-        <v>7.5999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -896,62 +877,62 @@
         <v>4</v>
       </c>
       <c r="G9">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="H9">
-        <v>4.2500000000000003E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="I9">
         <v>75</v>
       </c>
       <c r="J9">
-        <v>0.19600000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10">
         <v>1400</v>
       </c>
       <c r="H10">
-        <v>4.3333333333333331E-3</v>
+        <v>4.2500000000000003E-3</v>
       </c>
       <c r="I10">
         <v>75</v>
       </c>
       <c r="J10">
-        <v>0.156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -960,7 +941,7 @@
         <v>3</v>
       </c>
       <c r="G11">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H11">
         <v>4.3333333333333331E-3</v>
@@ -969,190 +950,190 @@
         <v>75</v>
       </c>
       <c r="J11">
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>1500</v>
+      </c>
+      <c r="H12">
+        <v>4.3333333333333331E-3</v>
+      </c>
+      <c r="I12">
+        <v>75</v>
+      </c>
+      <c r="J12">
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
         <v>4</v>
-      </c>
-      <c r="G12">
-        <v>4000</v>
-      </c>
-      <c r="H12">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I12">
-        <v>75</v>
-      </c>
-      <c r="J12">
-        <v>0.52900000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
       </c>
       <c r="G13">
         <v>4000</v>
       </c>
       <c r="H13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I13">
+        <v>75</v>
+      </c>
+      <c r="J13">
+        <v>0.52900000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>4000</v>
+      </c>
+      <c r="H14">
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="I13">
-        <v>75</v>
-      </c>
-      <c r="J13">
+      <c r="I14">
+        <v>75</v>
+      </c>
+      <c r="J14">
         <v>0.41199999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>1000</v>
+      </c>
+      <c r="H15">
+        <v>3.1666666666666666E-3</v>
+      </c>
+      <c r="I15">
+        <v>75</v>
+      </c>
+      <c r="J15">
+        <v>0.21199999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>1300</v>
+      </c>
+      <c r="H16">
+        <v>4.3333333333333331E-3</v>
+      </c>
+      <c r="I16">
+        <v>75</v>
+      </c>
+      <c r="J16">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
         <v>44</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D17" t="s">
         <v>45</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>6</v>
-      </c>
-      <c r="G14">
-        <v>1000</v>
-      </c>
-      <c r="H14">
-        <v>3.1666666666666666E-3</v>
-      </c>
-      <c r="I14">
-        <v>75</v>
-      </c>
-      <c r="J14">
-        <v>0.21199999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="G15">
-        <v>1300</v>
-      </c>
-      <c r="H15">
-        <v>4.3333333333333331E-3</v>
-      </c>
-      <c r="I15">
-        <v>75</v>
-      </c>
-      <c r="J15">
-        <v>0.13700000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
         <v>4</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <v>850</v>
-      </c>
-      <c r="H16">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="I16">
-        <v>75</v>
-      </c>
-      <c r="J16">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>1000</v>
       </c>
       <c r="H17">
         <v>5.4999999999999997E-3</v>
@@ -1161,85 +1142,85 @@
         <v>75</v>
       </c>
       <c r="J17">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>1000</v>
+      </c>
+      <c r="H18">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="I18">
+        <v>75</v>
+      </c>
+      <c r="J18">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
         <v>950</v>
       </c>
-      <c r="H18">
+      <c r="H19">
         <v>1.2E-2</v>
       </c>
-      <c r="I18">
-        <v>75</v>
-      </c>
-      <c r="J18">
+      <c r="I19">
+        <v>75</v>
+      </c>
+      <c r="J19">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>6</v>
-      </c>
-      <c r="G19">
-        <v>3000</v>
-      </c>
-      <c r="H19">
-        <v>2.9999999999999996E-3</v>
-      </c>
-      <c r="I19">
-        <v>75</v>
-      </c>
-      <c r="J19">
-        <v>0.59799999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1248,126 +1229,126 @@
         <v>6</v>
       </c>
       <c r="G20">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="H20">
-        <v>2.5000000000000001E-3</v>
+        <v>2.9999999999999996E-3</v>
       </c>
       <c r="I20">
         <v>75</v>
       </c>
       <c r="J20">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.59799999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G21">
         <v>5000</v>
       </c>
       <c r="H21">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I21">
+        <v>75</v>
+      </c>
+      <c r="J21">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>5000</v>
+      </c>
+      <c r="H22">
         <v>2.9999999999999996E-3</v>
       </c>
-      <c r="I21">
-        <v>75</v>
-      </c>
-      <c r="J21">
+      <c r="I22">
+        <v>75</v>
+      </c>
+      <c r="J22">
         <v>0.49</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
         <v>6</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <v>4000</v>
       </c>
-      <c r="H22">
+      <c r="H23">
         <v>2.6666666666666666E-3</v>
       </c>
-      <c r="I22">
-        <v>75</v>
-      </c>
-      <c r="J22">
+      <c r="I23">
+        <v>75</v>
+      </c>
+      <c r="J23">
         <v>0.76</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>4</v>
-      </c>
-      <c r="G23">
-        <v>1600</v>
-      </c>
-      <c r="H23">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="I23">
-        <v>75</v>
-      </c>
-      <c r="J23">
-        <v>0.21199999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1376,30 +1357,30 @@
         <v>4</v>
       </c>
       <c r="G24">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="H24">
-        <v>3.0000000000000001E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="I24">
         <v>75</v>
       </c>
       <c r="J24">
-        <v>0.17299999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.21199999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1408,30 +1389,30 @@
         <v>4</v>
       </c>
       <c r="G25">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="H25">
-        <v>4.2500000000000003E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I25">
         <v>75</v>
       </c>
       <c r="J25">
-        <v>0.14799999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.17299999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1440,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="G26">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="H26">
         <v>4.2500000000000003E-3</v>
@@ -1449,53 +1430,53 @@
         <v>75</v>
       </c>
       <c r="J26">
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>1500</v>
+      </c>
+      <c r="H27">
+        <v>4.2500000000000003E-3</v>
+      </c>
+      <c r="I27">
+        <v>75</v>
+      </c>
+      <c r="J27">
         <v>0.20200000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>6</v>
-      </c>
-      <c r="G27">
-        <v>1300</v>
-      </c>
-      <c r="H27">
-        <v>3.1666666666666666E-3</v>
-      </c>
-      <c r="I27">
-        <v>75</v>
-      </c>
-      <c r="J27">
-        <v>0.249</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1504,62 +1485,62 @@
         <v>6</v>
       </c>
       <c r="G28">
+        <v>1300</v>
+      </c>
+      <c r="H28">
+        <v>3.1666666666666666E-3</v>
+      </c>
+      <c r="I28">
+        <v>75</v>
+      </c>
+      <c r="J28">
+        <v>0.249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29">
         <v>6000</v>
       </c>
-      <c r="H28">
+      <c r="H29">
         <v>2.1666666666666666E-3</v>
       </c>
-      <c r="I28">
-        <v>75</v>
-      </c>
-      <c r="J28">
+      <c r="I29">
+        <v>75</v>
+      </c>
+      <c r="J29">
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>4</v>
-      </c>
-      <c r="G29">
-        <v>5000</v>
-      </c>
-      <c r="H29">
-        <v>2.7499999999999998E-3</v>
-      </c>
-      <c r="I29">
-        <v>75</v>
-      </c>
-      <c r="J29">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1568,30 +1549,30 @@
         <v>4</v>
       </c>
       <c r="G30">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="H30">
-        <v>2.2499999999999998E-3</v>
+        <v>2.7499999999999998E-3</v>
       </c>
       <c r="I30">
         <v>75</v>
       </c>
       <c r="J30">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D31" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1600,222 +1581,222 @@
         <v>4</v>
       </c>
       <c r="G31">
-        <v>2200</v>
+        <v>6000</v>
       </c>
       <c r="H31">
-        <v>3.2499999999999999E-3</v>
+        <v>2.2499999999999998E-3</v>
       </c>
       <c r="I31">
         <v>75</v>
       </c>
       <c r="J31">
-        <v>0.29499999999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D32" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G32">
         <v>2200</v>
       </c>
       <c r="H32">
+        <v>3.2499999999999999E-3</v>
+      </c>
+      <c r="I32">
+        <v>75</v>
+      </c>
+      <c r="J32">
+        <v>0.29499999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>2200</v>
+      </c>
+      <c r="H33">
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="I32">
-        <v>75</v>
-      </c>
-      <c r="J32">
+      <c r="I33">
+        <v>75</v>
+      </c>
+      <c r="J33">
         <v>0.23</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>650</v>
+      </c>
+      <c r="H34">
+        <v>0.01</v>
+      </c>
+      <c r="I34">
+        <v>75</v>
+      </c>
+      <c r="J34">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>600</v>
+      </c>
+      <c r="H35">
+        <v>0.02</v>
+      </c>
+      <c r="I35">
+        <v>75</v>
+      </c>
+      <c r="J35">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
         <v>82</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D36" t="s">
         <v>83</v>
       </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>500</v>
+      </c>
+      <c r="H36">
+        <v>1.1666666666666667E-2</v>
+      </c>
+      <c r="I36">
+        <v>75</v>
+      </c>
+      <c r="J36">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
         <v>4</v>
       </c>
-      <c r="G33">
-        <v>650</v>
-      </c>
-      <c r="H33">
-        <v>0.01</v>
-      </c>
-      <c r="I33">
-        <v>75</v>
-      </c>
-      <c r="J33">
-        <v>9.4E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" t="s">
-        <v>85</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>600</v>
-      </c>
-      <c r="H34">
-        <v>0.02</v>
-      </c>
-      <c r="I34">
-        <v>75</v>
-      </c>
-      <c r="J34">
-        <v>5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="G37">
+        <v>1600</v>
+      </c>
+      <c r="H37">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="I37">
+        <v>75</v>
+      </c>
+      <c r="J37">
+        <v>0.21199999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
         <v>86</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D38" t="s">
         <v>87</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>3</v>
-      </c>
-      <c r="G35">
-        <v>500</v>
-      </c>
-      <c r="H35">
-        <v>1.1666666666666667E-2</v>
-      </c>
-      <c r="I35">
-        <v>75</v>
-      </c>
-      <c r="J35">
-        <v>6.3E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" t="s">
-        <v>89</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>4</v>
-      </c>
-      <c r="G36">
-        <v>1600</v>
-      </c>
-      <c r="H36">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="I36">
-        <v>75</v>
-      </c>
-      <c r="J36">
-        <v>0.21199999999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>3</v>
-      </c>
-      <c r="G37">
-        <v>1000</v>
-      </c>
-      <c r="H37">
-        <v>4.3333333333333331E-3</v>
-      </c>
-      <c r="I37">
-        <v>75</v>
-      </c>
-      <c r="J37">
-        <v>0.11600000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" t="s">
-        <v>93</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1824,15 +1805,47 @@
         <v>3</v>
       </c>
       <c r="G38">
+        <v>1000</v>
+      </c>
+      <c r="H38">
+        <v>4.3333333333333331E-3</v>
+      </c>
+      <c r="I38">
+        <v>75</v>
+      </c>
+      <c r="J38">
+        <v>0.11600000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
         <v>6000</v>
       </c>
-      <c r="H38">
+      <c r="H39">
         <v>2.3333333333333335E-3</v>
       </c>
-      <c r="I38">
-        <v>75</v>
-      </c>
-      <c r="J38">
+      <c r="I39">
+        <v>75</v>
+      </c>
+      <c r="J39">
         <v>0.63</v>
       </c>
     </row>

--- a/COMPONENTS/Battery/BatteryDatabase.xlsx
+++ b/COMPONENTS/Battery/BatteryDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renkert2\Documents\ARG_Research\QuadrotorOptimization\COMPONENTS\Battery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701FF17C-75EE-44CF-A1AD-DB0DE625A630}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D41DD05-BE5C-471C-8C4B-A1834BB3EFAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EAB02434-AA89-48FD-AFF1-30E2F2364EC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="97">
   <si>
     <t>Make</t>
   </si>
@@ -315,6 +315,15 @@
   </si>
   <si>
     <t>Data</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Pack Price</t>
   </si>
 </sst>
 </file>
@@ -678,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974502DF-30A3-446B-868F-1B65DF404E6A}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,15 +698,16 @@
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="58.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>90</v>
       </c>
@@ -705,7 +715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>91</v>
       </c>
@@ -727,8 +737,11 @@
       <c r="J2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -750,8 +763,11 @@
       <c r="J3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -773,13 +789,16 @@
       <c r="J4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -793,7 +812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -824,8 +843,11 @@
       <c r="J7">
         <v>0.40500000000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>56.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -856,8 +878,11 @@
       <c r="J8">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>42.97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -888,8 +913,11 @@
       <c r="J9">
         <v>7.5999999999999998E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>21.97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -920,8 +948,11 @@
       <c r="J10">
         <v>0.19600000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>27.87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -952,8 +983,11 @@
       <c r="J11">
         <v>0.156</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>23.99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -984,8 +1018,11 @@
       <c r="J12">
         <v>0.16200000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>22.97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1016,8 +1053,11 @@
       <c r="J13">
         <v>0.52900000000000003</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>69.989999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1048,8 +1088,11 @@
       <c r="J14">
         <v>0.41199999999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>55.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1080,8 +1123,11 @@
       <c r="J15">
         <v>0.21199999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>26.99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1112,8 +1158,11 @@
       <c r="J16">
         <v>0.13700000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>16.989999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1144,8 +1193,11 @@
       <c r="J17">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>18.989999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1176,8 +1228,11 @@
       <c r="J18">
         <v>8.4000000000000005E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>9.5399999999999991</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1208,8 +1263,11 @@
       <c r="J19">
         <v>4.2999999999999997E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>9.32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1240,8 +1298,11 @@
       <c r="J20">
         <v>0.59799999999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>82.57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1272,8 +1333,11 @@
       <c r="J21">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>116.95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1304,8 +1368,11 @@
       <c r="J22">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>65.97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1336,8 +1403,11 @@
       <c r="J23">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>104.97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1368,8 +1438,11 @@
       <c r="J24">
         <v>0.21199999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <v>24.99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1400,8 +1473,11 @@
       <c r="J25">
         <v>0.17299999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>23.99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1432,8 +1508,11 @@
       <c r="J26">
         <v>0.14799999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>23.97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1464,8 +1543,11 @@
       <c r="J27">
         <v>0.20200000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <v>26.97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1496,8 +1578,11 @@
       <c r="J28">
         <v>0.249</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>31.99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1528,8 +1613,11 @@
       <c r="J29">
         <v>1.1399999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <v>129.99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1560,8 +1648,11 @@
       <c r="J30">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <v>81.99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1592,8 +1683,11 @@
       <c r="J31">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>99.99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1624,8 +1718,11 @@
       <c r="J32">
         <v>0.29499999999999998</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>42.97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1656,8 +1753,11 @@
       <c r="J33">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <v>32.99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1688,8 +1788,11 @@
       <c r="J34">
         <v>9.4E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <v>14.19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1720,8 +1823,11 @@
       <c r="J35">
         <v>5.0999999999999997E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1752,8 +1858,11 @@
       <c r="J36">
         <v>6.3E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1784,8 +1893,11 @@
       <c r="J37">
         <v>0.21199999999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1816,8 +1928,11 @@
       <c r="J38">
         <v>0.11600000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <v>16.989999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1847,6 +1962,9 @@
       </c>
       <c r="J39">
         <v>0.63</v>
+      </c>
+      <c r="K39">
+        <v>75.97</v>
       </c>
     </row>
   </sheetData>
